--- a/test.xlsx
+++ b/test.xlsx
@@ -10,7 +10,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>x</t>
   </si>
@@ -27,25 +27,40 @@
     <t>description</t>
   </si>
   <si>
+    <t>La Pandiela</t>
+  </si>
+  <si>
+    <t>Las Grandas</t>
+  </si>
+  <si>
+    <t>Llano La Virgen</t>
+  </si>
+  <si>
+    <t>El Castillo</t>
+  </si>
+  <si>
+    <t>Mata Las Llanezas</t>
+  </si>
+  <si>
+    <t>Las Bodegueras</t>
+  </si>
+  <si>
+    <t>Prao San Pedro</t>
+  </si>
+  <si>
+    <t>Cota Real</t>
+  </si>
+  <si>
+    <t>El Majadon</t>
+  </si>
+  <si>
+    <t>La Jagariz (Fuente)</t>
+  </si>
+  <si>
+    <t>Tremapasaguas</t>
+  </si>
+  <si>
     <t>Prao Santiago</t>
-  </si>
-  <si>
-    <t>La Pandiela</t>
-  </si>
-  <si>
-    <t>Las Grandas</t>
-  </si>
-  <si>
-    <t>Llano La Virgen</t>
-  </si>
-  <si>
-    <t>El Castillo</t>
-  </si>
-  <si>
-    <t>Mata Las Llanezas</t>
-  </si>
-  <si>
-    <t>Las Bodegueras</t>
   </si>
 </sst>
 </file>
@@ -128,10 +143,10 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>-5.11271847296921</v>
+        <v>-5.11314713344928</v>
       </c>
       <c r="B2">
-        <v>43.0379099487538</v>
+        <v>43.0475785813902</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -142,10 +157,10 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>-5.11314713344928</v>
+        <v>-5.11114634792837</v>
       </c>
       <c r="B3">
-        <v>43.0475785813902</v>
+        <v>43.051480203257</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -156,10 +171,10 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>-5.11114634792837</v>
+        <v>-5.11548776300494</v>
       </c>
       <c r="B4">
-        <v>43.051480203257</v>
+        <v>43.0448571835119</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -170,10 +185,10 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>-5.11548776300494</v>
+        <v>-5.11642856729724</v>
       </c>
       <c r="B5">
-        <v>43.0448571835119</v>
+        <v>43.0410265735243</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -184,10 +199,10 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>-5.11642856729724</v>
+        <v>-5.11769350249134</v>
       </c>
       <c r="B6">
-        <v>43.0410265735243</v>
+        <v>43.0487496631674</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -198,10 +213,10 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>-5.11769350249134</v>
+        <v>-5.11681136051063</v>
       </c>
       <c r="B7">
-        <v>43.0487496631674</v>
+        <v>43.0469694049557</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -212,16 +227,86 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>-5.11681136051063</v>
+        <v>-5.12369887231031</v>
       </c>
       <c r="B8">
-        <v>43.0469694049557</v>
+        <v>43.0469214270074</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>-5.11101103091742</v>
+      </c>
+      <c r="B9">
+        <v>43.052865379369</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>-5.11484621458358</v>
+      </c>
+      <c r="B10">
+        <v>43.0494468327536</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>-5.11249996871582</v>
+      </c>
+      <c r="B11">
+        <v>43.045525626433</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>-5.11633289596547</v>
+      </c>
+      <c r="B12">
+        <v>43.0434592693458</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>-5.11673010058391</v>
+      </c>
+      <c r="B13">
+        <v>43.0428568786621</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
